--- a/data/income_statement/3digits/total/811_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/811_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>811-Combined facilities support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>811-Combined facilities support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>257898.07743</v>
@@ -968,25 +874,30 @@
         <v>434097.87331</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>733448.1084400001</v>
+        <v>752653.1648199999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1242118.62875</v>
+        <v>1242163.93372</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1982960.00529</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1472127.12896</v>
+        <v>1885501.5177</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1924977.88477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2528545.37467</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3901629.523</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>255428.40171</v>
@@ -1007,25 +918,30 @@
         <v>410220.68637</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>695490.77622</v>
+        <v>714602.53074</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1214310.65876</v>
+        <v>1214332.81876</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1933002.80564</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1432736.27086</v>
+        <v>1845921.59385</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1875593.69497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2478180.43841</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3839148.345</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>11018.158</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>11445.466</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2469.67572</v>
@@ -1085,25 +1006,30 @@
         <v>22565.74294</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>17067.09382</v>
+        <v>17160.39568</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>14521.57968</v>
+        <v>14544.72465</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>34514.97946</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>22476.85415</v>
+        <v>22665.9199</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>38366.0318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>39346.77826</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>51035.712</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>220.89583</v>
@@ -1124,7 +1050,7 @@
         <v>48.14755</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>954.7117900000001</v>
+        <v>1028.05126</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>3984.08436</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>9347.256029999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>77255.77800000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>195.75028</v>
@@ -1163,7 +1094,7 @@
         <v>43.86216</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>731.7078300000001</v>
+        <v>805.0473000000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>3814.15355</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>8961.32523</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>74009.496</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>8.925000000000001</v>
@@ -1211,16 +1147,21 @@
         <v>21.07796</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>94.29015000000001</v>
+        <v>94.29015</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>126.54833</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>2645.65</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>16.22055</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>259.38247</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>600.6319999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>257677.1816</v>
@@ -1280,25 +1226,30 @@
         <v>434049.72576</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>732493.39665</v>
+        <v>751625.1135600001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1238134.54439</v>
+        <v>1238179.84936</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1970936.94349</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1464221.22983</v>
+        <v>1877595.61857</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1915630.62874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2519198.11864</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3824373.745</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>220231.88279</v>
@@ -1319,25 +1270,30 @@
         <v>384217.44438</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>677122.36899</v>
+        <v>694218.8859400001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1097847.2692</v>
+        <v>1097870.60211</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1828509.38058</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1305275.02271</v>
+        <v>1706890.77628</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1699508.61396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2179925.92377</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3418245.237</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3043.2854</v>
@@ -1370,13 +1326,18 @@
         <v>28144.82241</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>29080.23599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>29226.15139</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>109229.159</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>6693.2682</v>
@@ -1397,7 +1358,7 @@
         <v>28532.63299</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>74248.04466</v>
+        <v>74344.70466</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>141309.43517</v>
@@ -1406,16 +1367,21 @@
         <v>177230.79067</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>129360.1407</v>
+        <v>129446.85643</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>185909.96359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>188308.09252</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>144032.395</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>210434.99198</v>
@@ -1436,25 +1402,30 @@
         <v>352517.52995</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>600215.96072</v>
+        <v>617176.35332</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>948778.35087</v>
+        <v>948801.68378</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1620053.12893</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1144565.42958</v>
+        <v>1546094.46742</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1482101.74548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1959975.01096</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3163630.398</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>60.33721</v>
@@ -1475,7 +1446,7 @@
         <v>2502.82301</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1521.87863</v>
+        <v>1561.34298</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>2383.4164</v>
@@ -1489,14 +1460,19 @@
       <c r="M18" s="48" t="n">
         <v>2416.6689</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1353.285</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>37445.29880999999</v>
+        <v>37445.29881</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>24073.6868</v>
@@ -1511,28 +1487,33 @@
         <v>36138.80578</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>49832.28138</v>
+        <v>49832.28137999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>55371.02766</v>
+        <v>57406.22762</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>140287.27519</v>
+        <v>140309.24725</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>142427.56291</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>158946.20712</v>
+        <v>170704.84229</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>216122.01478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>339272.19487</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>406128.508</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>27912.57094</v>
@@ -1553,25 +1534,30 @@
         <v>33500.13422</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>57910.9037</v>
+        <v>59855.26184000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>94457.06370999999</v>
+        <v>94459.04116000001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>124797.45446</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>160009.95731</v>
+        <v>162705.85483</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>194796.88669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>199554.45768</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>263866.871</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>6.95876</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1081.37539</v>
@@ -1631,7 +1622,7 @@
         <v>1026.8476</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3065.21001</v>
+        <v>3078.77434</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>21330.78874</v>
@@ -1643,13 +1634,18 @@
         <v>6878.07055</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>13404.34482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14734.68701</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>10957.679</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>26831.19555</v>
@@ -1670,31 +1666,36 @@
         <v>32471.14378</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>54827.50240999999</v>
+        <v>56758.29622</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>73089.14945</v>
+        <v>73091.12689999999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>120211.89904</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>153131.88676</v>
+        <v>155827.78428</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>181385.58311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>184812.81191</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>252909.192</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>9532.727870000001</v>
+        <v>9532.727869999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3158.814150000001</v>
+        <v>3158.81415</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>-324.9830600000001</v>
@@ -1709,25 +1710,30 @@
         <v>16332.14716</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-2539.876040000001</v>
+        <v>-2449.03422</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>45830.21148000001</v>
+        <v>45850.20609</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>17630.10845</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-1063.75019</v>
+        <v>7998.98746</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>21325.12808999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>139717.73719</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>142261.637</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>18549.94262</v>
@@ -1748,25 +1754,30 @@
         <v>6475.83879</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>13880.87417</v>
+        <v>14288.67706</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>17507.51859</v>
+        <v>17507.5186</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>319209.93172</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>225171.12668</v>
+        <v>233728.75785</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>30350.82022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>34678.96855</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>112558.039</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>295.86872</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>77.07934999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2.865</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>9803.957</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3086.02168</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2363.18108</v>
+        <v>2363.181080000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>1867.91862</v>
@@ -1865,7 +1886,7 @@
         <v>2829.94164</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3570.00586</v>
+        <v>3971.23594</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>2581.4884</v>
@@ -1877,13 +1898,18 @@
         <v>5204.93243</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>5699.37512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5124.54628</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>10623.43</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1916,13 +1942,18 @@
         <v>21.28752</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>237.41979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>211.63209</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>184.185</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3488.39498</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>370.173</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4538.873</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>172.40838</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>235.64261</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>331.801</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11069.41236</v>
@@ -2021,7 +2062,7 @@
         <v>744.61527</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6751.53864</v>
+        <v>6754.41145</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>6277.68121</v>
@@ -2030,16 +2071,21 @@
         <v>302021.8231</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>212627.8709</v>
+        <v>221185.47829</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5180.29902</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10412.25166</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>58985.529</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>434.9715</v>
@@ -2138,25 +2194,30 @@
         <v>1048.72205</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1334.35941</v>
+        <v>1338.05941</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2953.93577</v>
+        <v>2953.93578</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>4750.490070000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3674.88004</v>
+        <v>3674.90382</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18250.83133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>17947.64356</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>28090.264</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>10244.55713</v>
@@ -2165,7 +2226,7 @@
         <v>739.46743</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>823.8306799999999</v>
+        <v>823.83068</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>1135.55124</v>
@@ -2177,25 +2238,30 @@
         <v>1427.47576</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6648.91848</v>
+        <v>6668.30324</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5992.13328</v>
+        <v>5992.133279999999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>274176.52974</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>218293.89085</v>
+        <v>222220.6877</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>10656.04739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>12058.49046</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>70463.024</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.5603100000000001</v>
@@ -2216,7 +2282,7 @@
         <v>0.14099</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>0.035</v>
+        <v>0.37785</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1.11185</v>
@@ -2228,13 +2294,18 @@
         <v>236.22121</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>464.51049</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>467.8245</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>188.752</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>156.28468</v>
@@ -2255,7 +2326,7 @@
         <v>245.59815</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>301.30495</v>
+        <v>314.87495</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>320.19084</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2388.32932</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3655.62</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>0.06979</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>10023.76445</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>527.8353500000001</v>
+        <v>527.8353499999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>297.85715</v>
@@ -2330,10 +2411,10 @@
         <v>215.00839</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>800.1066200000001</v>
+        <v>800.10662</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6149.853359999999</v>
+        <v>6155.325269999999</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>5525.225759999999</v>
@@ -2342,16 +2423,21 @@
         <v>270994.87378</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>217349.17958</v>
+        <v>221275.97643</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5375.26375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6774.392809999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>61452.074</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,17 +2472,22 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>4.404</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4.33515</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>5.372859999999999</v>
+        <v>5.37286</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>59.61254</v>
@@ -2441,7 +2537,7 @@
         <v>383.5949200000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>62.97</v>
+        <v>62.97000000000001</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>202.10107</v>
@@ -2459,16 +2555,21 @@
         <v>1499.42569</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>667.57362</v>
+        <v>667.5736200000001</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>2427.87404</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>5162.174</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1687.93141</v>
@@ -2477,7 +2578,7 @@
         <v>1243.68608</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>811.47959</v>
+        <v>811.4795899999998</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>555.88686</v>
@@ -2489,7 +2590,7 @@
         <v>1918.51308</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3842.27505</v>
+        <v>3906.66247</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>3731.39107</v>
@@ -2498,25 +2599,30 @@
         <v>206239.66374</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12683.55357</v>
+        <v>12685.2282</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>14964.07393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15101.395</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>19198.915</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1645.47714</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>963.68935</v>
+        <v>963.6893499999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>811.47959</v>
+        <v>811.4795899999998</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>405.99886</v>
@@ -2528,7 +2634,7 @@
         <v>1918.51308</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3423.4931</v>
+        <v>3487.88052</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>2868.10115</v>
@@ -2537,16 +2643,21 @@
         <v>10933.24435</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9797.783289999999</v>
+        <v>9799.457920000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11658.88083</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11795.23315</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>17995.449</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>42.45426999999999</v>
@@ -2579,13 +2690,18 @@
         <v>2885.77028</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3305.1931</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3306.16185</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1203.466</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>16150.18195</v>
@@ -2606,25 +2722,30 @@
         <v>19461.99711</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>849.8045999999996</v>
+        <v>1264.67713</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>53614.20572</v>
+        <v>53634.20034</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-143576.15331</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-6870.067929999999</v>
+        <v>6821.829409999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>26055.82699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>147236.82028</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>165157.737</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3015.61047</v>
@@ -2636,34 +2757,39 @@
         <v>2492.48468</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>664.41956</v>
+        <v>664.4195599999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>690.2938599999999</v>
+        <v>690.29386</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>1315.26731</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3280.34412</v>
+        <v>3508.9269</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3870.20393</v>
+        <v>3870.203930000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>6277.264970000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>14228.79895</v>
+        <v>14228.79897</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>8047.591199999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>7873.13824</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>33026.837</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>481.51021</v>
@@ -2684,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>44.54939</v>
+        <v>120.99283</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>45.85483</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>43.60716</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1438.809</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2534.10026</v>
@@ -2723,28 +2854,33 @@
         <v>1315.26731</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3235.79473</v>
+        <v>3387.93407</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>3824.3491</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>6040.28646</v>
+        <v>6040.286460000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>14190.72241</v>
+        <v>14190.72243</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>8003.98404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7829.53108</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>31588.028</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>291.09877</v>
+        <v>291.0987699999999</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>497.24223</v>
@@ -2762,25 +2898,30 @@
         <v>2100.88026</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1484.59571</v>
+        <v>1586.73013</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>47635.13785</v>
+        <v>47635.13784999999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>6493.13874</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>6915.77144</v>
+        <v>6949.699570000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6228.55516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6247.57021</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>14766.825</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>29.001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>49.61619</v>
@@ -2840,13 +2986,13 @@
         <v>15.17903</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>124.45039</v>
+        <v>165.91257</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>42687.60468</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>955.4275600000001</v>
+        <v>955.42756</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>238.57636</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>422.1483000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1001.594</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>241.48258</v>
@@ -2879,7 +3030,7 @@
         <v>1533.02769</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1356.65813</v>
+        <v>1417.33037</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>4947.53317</v>
@@ -2888,25 +3039,30 @@
         <v>5537.711179999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>6677.19508</v>
+        <v>6711.12321</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5806.406859999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5825.42191</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13736.23</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>18874.69365</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>7634.4887</v>
+        <v>7634.488699999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-346.1353699999992</v>
+        <v>-346.1353700000001</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>6757.09114</v>
@@ -2918,25 +3074,30 @@
         <v>18676.38416</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2645.553009999999</v>
+        <v>3186.8739</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>9849.271799999999</v>
+        <v>9869.26642</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-143792.02708</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>442.9595800000001</v>
+        <v>14100.92881</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>27874.86303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>148862.38831</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>183417.749</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2007.86295</v>
@@ -2954,28 +3115,33 @@
         <v>3651.39109</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4829.007060000001</v>
+        <v>4829.00706</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5525.570189999999</v>
+        <v>5525.57019</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5752.887879999999</v>
+        <v>5752.97865</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>7723.427380000001</v>
+        <v>7723.42738</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>7602.85572</v>
+        <v>7603.356279999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>13249.6813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>13424.30737</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>35366.631</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>16866.8307</v>
@@ -2984,7 +3150,7 @@
         <v>5323.23864</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2987.407780000001</v>
+        <v>-2987.40778</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>3491.86895</v>
@@ -2996,22 +3162,25 @@
         <v>13847.3771</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-2880.017180000001</v>
+        <v>-2338.69629</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4096.38392</v>
+        <v>4116.28777</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-151515.45446</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-7159.896139999999</v>
+        <v>6497.572529999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>14625.18173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>135438.08094</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>148051.118</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>55</v>
@@ -3050,22 +3222,25 @@
         <v>161</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>362</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>369</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>